--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\My\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA501B-B2E1-4314-8059-B4C5EA5DE7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFCB99-C1F8-47BF-9187-E9D206E356C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -33,9 +33,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>STORY</t>
-  </si>
-  <si>
     <t>CLASS</t>
   </si>
   <si>
@@ -48,13 +45,127 @@
     <t>TALENT</t>
   </si>
   <si>
-    <t>SKILL 1</t>
-  </si>
-  <si>
-    <t>SKILL 2</t>
-  </si>
-  <si>
-    <t>SKILL 3 (ULTIMATE)</t>
+    <t>ELEMENT</t>
+  </si>
+  <si>
+    <t>Kim (Metal)</t>
+  </si>
+  <si>
+    <t>Thủy (Water)</t>
+  </si>
+  <si>
+    <t>Assassin</t>
+  </si>
+  <si>
+    <t>BASIC ATTACK</t>
+  </si>
+  <si>
+    <t>SKILL (cần 1 skill point)</t>
+  </si>
+  <si>
+    <t>ULTIMATE (cần 100 Ulti point)</t>
+  </si>
+  <si>
+    <t>Đấm gây 50%/60%/70%/80%/100% sát thương thuỷ vào 1 kẻ địch</t>
+  </si>
+  <si>
+    <t>Đấm băng giá vào 1 mục tiêu gây ra 70%/80%/90%/100%/115% sát thương thuỷ. Khiến mục tiêu không thể sử dụng skill trong 1/1/1/2/2 hiệp</t>
+  </si>
+  <si>
+    <t>Một thiên thạch bằng từ trên cao rơi xuống 1 mục tiêu gây 100%/115%/127%/139%/150% sát thương thuỷ, huỷ tất cả hiệu ứng có lợi của mục tiêu</t>
+  </si>
+  <si>
+    <t>Mỗi một kẻ địch chết thì sát thương sẽ cộng thêm 1%/2%/3%/5%/6%</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>Saboteur</t>
+  </si>
+  <si>
+    <t>Mộc (Wood)</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Cả đội sẽ có 2%/3%/5%/7%/8% cơ hội kháng được hiệu ứng xấu từ debuff khi nhận trong toàn trận đấu</t>
+  </si>
+  <si>
+    <t>Triệu hồi cây từ dưới chân gây 40%/45%/50%/55%/70% sát thương mộc vào 1 kẻ địch. Hoặc phá giải ngẫu nhiên 1 hiệu ứng xấu của 1 đồng đội</t>
+  </si>
+  <si>
+    <t>Hồi 10/15/18/25/30 điểm Ultimate cho 1 đồng đội, và có tỉ lệ 0.5%/0.8%/1.3%/1.7%/2.8% hồi 100% điểm ultimate</t>
+  </si>
+  <si>
+    <t>Chiquita</t>
+  </si>
+  <si>
+    <t>Pharita</t>
+  </si>
+  <si>
+    <t>Rami</t>
+  </si>
+  <si>
+    <t>Rora</t>
+  </si>
+  <si>
+    <t>Ruka</t>
+  </si>
+  <si>
+    <t>Hỏa (Fire)</t>
+  </si>
+  <si>
+    <t>Khi đạt 100 UP, bước vào Chờ Bùng Nổ (2 hiệp). Giảm 50/45/40/35/30% Thủ. Nếu dùng Ultimate ngay thì sẽ hủy Bùng Nổ, không bị giảm Thủ. Sau 2 hiệp, kích hoạt Bùng Nổ (2 hiệp) thủ trở lại gốc, tăng 20/25/29/35/46% Tỷ Lệ Chí Mạng, 20/22/24/26/30% tỉ lệ Xuyên Giáp. Bùng Nổ kết thúc vẫn giữ 100 năng lượng, có thể dùng Ultimate bất cứ lúc nào. Bùng Nổ không kích hoạt lại cho đến khi Ultimate được dùng.</t>
+  </si>
+  <si>
+    <t>Gây 40/50/60/70/80% sát thương Hỏa lên 1 tiêu chính. Hai kẻ địch bên cạnh chịu sát thương lan bằng 10/20/30/40/50% sát thương mục tiêu nhận.</t>
+  </si>
+  <si>
+    <t>Gây 70/80/90/100/110% sát thương Hỏa lên 1 tiêu chính. Lan sát thương qua hai bên trái phải, mỗi lần đi qua một người sẽ giảm 70/60/45/30/10% sát thương từ người trước đó.</t>
+  </si>
+  <si>
+    <t>Hồi máu cho toàn đội trừ bản thân, số máu hồi được sẽ bằng 5/8/12/17/24% máu mà bản thân đang có, và có tỉ lệ 0.5%/1%/2%/3%/4% phá giải toàn bộ hiệu ứng xấu.</t>
+  </si>
+  <si>
+    <t>Gây vụ nổ cho 2/3/4/5/6 mục tiêu gần nhau gây ra 100/120/135/150/165% sát thương lửa. Suy giảm 10/12/14/16/19% phòng thủ của mục tiêu trong 1 hiệp sau</t>
+  </si>
+  <si>
+    <t>Tactician</t>
+  </si>
+  <si>
+    <t>Gây 40/50/60/70/80% sát thương Thuỷ lên 1 mục tiêu</t>
+  </si>
+  <si>
+    <t>Mỗi hiệp, Pharita sẽ trao ngẫu nhiên cho 1/1/1/2/2 đồng đội 10/14/19/23/30% tỉ lệ không chết khi bị hết máu, máu sẽ về 1, nếu pharita chết thì mất, khi kích máu về 1 thì đồng đội đó nhận được 10/15/22/35/45% tấn công cộng thêm</t>
+  </si>
+  <si>
+    <t>Tăng 20/30/35/45/50% sát thương chí mạng đang có cho 1 đồng đội trong 2 hiệp, nếu cả 2 hiệp sử dụng tấn công đều trúng chí mạng thì người đó sẽ hồi 20/25/30/35/40 điểm ultimate</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>Thổ (Earth)</t>
+  </si>
+  <si>
+    <t>Khi đồng đội đang có tường đá bảo vệ được tạo từ skill của Ruka bị địch tấn công, Ruka sẽ đánh trả với sát thương thổ bằng 20/22/25/27/31% sát thương mà đồng đội bị tấn công nhận được, nếu kẻ địch đánh lan thì sẽ lấy từ đồng đội bị nặng nhất</t>
+  </si>
+  <si>
+    <t>Gây 40/45/50/55/60% sát thương thổ lên 3 mục tiêu liền nhau</t>
+  </si>
+  <si>
+    <t>Tạo tường đá cho 2 đồng đội liền nhau và chuyển hoá 10/12/14/17/20% sát thương nhận được cho Ruka gánh chịu, có 1/2/3/4/5% tỉ lệ tường đá gây hiệu ứng choáng cho kẻ tấn công trong 1 hiệp</t>
+  </si>
+  <si>
+    <t>Khiêu khích kẻ địch khiến các đòn tấn công bị lệch hướng về phía bản thân để nhận thay cho đồng đội, tỉ lệ chệch hướng là 10/15/20/25/30% trong 1/1/2/2/2 hiệp</t>
+  </si>
+  <si>
+    <t>Tạo lá chắn nước cho toàn đội lẫn mình, ngăn chặn toàn bộ hiệu ứng xấu hệ hoả và mộc, cũng như giảm 10/13/17/25/30% sát thương hoả và mộc trong 1/1/2/2/2 hiệp</t>
+  </si>
+  <si>
+    <t>Juggernaut</t>
   </si>
 </sst>
 </file>
@@ -90,8 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,21 +489,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
     <col min="5" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,36 +514,194 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Juggernaut = Công thủ toàn diện_x000a_Assassin = Sát thương đơn_x000a_Demolisher = Sát thương diện rộng_x000a_Tactician = Buff tấn công, phòng thủ_x000a_Saboteur = Hiệu ứng bất lợi, vô hiệu_x000a_Guardian = Tạo khiên bảo vệ_x000a_Medic = Hồi máu, cứu trợ" sqref="D2" xr:uid="{6E023480-FD31-4438-9A06-832729806492}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Juggernaut = Công thủ toàn diện_x000a_Assassin = Sát thương đơn_x000a_Demolisher = Sát thương diện rộng_x000a_Tactician = Buff tấn công, phòng thủ_x000a_Saboteur = Hiệu ứng bất lợi, vô hiệu_x000a_Guardian = Tạo khiên bảo vệ_x000a_Medic = Hồi máu, cứu trợ" sqref="C2:C8" xr:uid="{6E023480-FD31-4438-9A06-832729806492}">
       <formula1>"Juggernaut,Assassin,Demolisher,Tactician,Saboteur,Guardian,Medic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{4C8FBBDF-ED1E-4172-89A9-C2F1BFC0A303}">
+      <formula1>"Kim (Metal),Mộc (Wood),Thủy (Water),Hỏa (Fire),Thổ (Earth)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\My\CardGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFCB99-C1F8-47BF-9187-E9D206E356C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9662348-8C93-4667-B979-5B90F90AF92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -166,14 +168,188 @@
   </si>
   <si>
     <t>Juggernaut</t>
+  </si>
+  <si>
+    <t>Hệ</t>
+  </si>
+  <si>
+    <t>Weakness Break Effect</t>
+  </si>
+  <si>
+    <t>Break Multiplier</t>
+  </si>
+  <si>
+    <t>⚔ KIM</t>
+  </si>
+  <si>
+    <t>🌿 MỘC</t>
+  </si>
+  <si>
+    <t>💧 THỦY</t>
+  </si>
+  <si>
+    <t>🔥 HỎA</t>
+  </si>
+  <si>
+    <t>🏔 THỔ</t>
+  </si>
+  <si>
+    <r>
+      <t>1.2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (phá Toughness nhanh hơn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ổn định)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (tập trung sát thương)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.0x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (ổn định nhưng có hiệu ứng AOE)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Phá Giáp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gây sát thương xuyên giáp và khiến mục tiêu giảm mạnh giáp trong X lượt. Nếu mục tiêu không có giáp, giảm % thủ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Ký Sinh"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Triệu hồi dây leo trói mục tiêu, gây DoT và hồi máu cho đồng minh dựa trên sát thương gây ra. Nếu mục tiêu bị Break lần nữa khi hiệu ứng còn tồn tại, sẽ bị khóa kỹ năng trong 1 lượt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Băng Hoại"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gây hiệu ứng Lạnh Thấu Xương, làm mục tiêu giảm tốc độ, mất hành động trong 1 lượt. Nếu địch bị Break lần nữa khi hiệu ứng còn, sẽ bị giảm 50% hiệu ứng hồi phục nhận vào.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Thiêu Đốt"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gây DoT cực mạnh (cao hơn Mộc), nhưng có thể bị dập tắt nếu địch nhận sát thương Thủy. Nếu mục tiêu đã bị Burn trước đó, Break sẽ nổ lan gây sát thương AOE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Chấn Động"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Gây Shock (DoT nhẹ) nhưng có thêm hiệu ứng Gây Chấn Động Lân Cận. Địch xung quanh mục tiêu chính sẽ bị Shock nhẹ và giảm Def. Nếu địch đang trong trạng thái không chế (Stun, Freeze, v.v.), sát thương Break x2.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,13 +377,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,19 +676,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -555,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -581,7 +766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -607,7 +792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -633,7 +818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -659,7 +844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -677,7 +862,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -696,7 +881,7 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations xWindow="467" yWindow="477" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Juggernaut = Công thủ toàn diện_x000a_Assassin = Sát thương đơn_x000a_Demolisher = Sát thương diện rộng_x000a_Tactician = Buff tấn công, phòng thủ_x000a_Saboteur = Hiệu ứng bất lợi, vô hiệu_x000a_Guardian = Tạo khiên bảo vệ_x000a_Medic = Hồi máu, cứu trợ" sqref="C2:C8" xr:uid="{6E023480-FD31-4438-9A06-832729806492}">
       <formula1>"Juggernaut,Assassin,Demolisher,Tactician,Saboteur,Guardian,Medic"</formula1>
     </dataValidation>
@@ -706,4 +891,102 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5E221-C559-470B-933E-E3AC9D08E443}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233CBE62-7DB3-4381-82B5-9F6DD4E49EC0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\My\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9662348-8C93-4667-B979-5B90F90AF92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2106E9-2ACF-4DFB-8614-4D7F49B013BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Elements" sheetId="2" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,147 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
-  <si>
-    <t>STT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>CLASS</t>
-  </si>
-  <si>
-    <t>Ahyeon</t>
-  </si>
-  <si>
-    <t>Demolisher</t>
-  </si>
-  <si>
-    <t>TALENT</t>
-  </si>
-  <si>
-    <t>ELEMENT</t>
-  </si>
-  <si>
-    <t>Kim (Metal)</t>
-  </si>
-  <si>
-    <t>Thủy (Water)</t>
-  </si>
-  <si>
-    <t>Assassin</t>
-  </si>
-  <si>
-    <t>BASIC ATTACK</t>
-  </si>
-  <si>
-    <t>SKILL (cần 1 skill point)</t>
-  </si>
-  <si>
-    <t>ULTIMATE (cần 100 Ulti point)</t>
-  </si>
-  <si>
-    <t>Đấm gây 50%/60%/70%/80%/100% sát thương thuỷ vào 1 kẻ địch</t>
-  </si>
-  <si>
-    <t>Đấm băng giá vào 1 mục tiêu gây ra 70%/80%/90%/100%/115% sát thương thuỷ. Khiến mục tiêu không thể sử dụng skill trong 1/1/1/2/2 hiệp</t>
-  </si>
-  <si>
-    <t>Một thiên thạch bằng từ trên cao rơi xuống 1 mục tiêu gây 100%/115%/127%/139%/150% sát thương thuỷ, huỷ tất cả hiệu ứng có lợi của mục tiêu</t>
-  </si>
-  <si>
-    <t>Mỗi một kẻ địch chết thì sát thương sẽ cộng thêm 1%/2%/3%/5%/6%</t>
-  </si>
-  <si>
-    <t>Asa</t>
-  </si>
-  <si>
-    <t>Saboteur</t>
-  </si>
-  <si>
-    <t>Mộc (Wood)</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Cả đội sẽ có 2%/3%/5%/7%/8% cơ hội kháng được hiệu ứng xấu từ debuff khi nhận trong toàn trận đấu</t>
-  </si>
-  <si>
-    <t>Triệu hồi cây từ dưới chân gây 40%/45%/50%/55%/70% sát thương mộc vào 1 kẻ địch. Hoặc phá giải ngẫu nhiên 1 hiệu ứng xấu của 1 đồng đội</t>
-  </si>
-  <si>
-    <t>Hồi 10/15/18/25/30 điểm Ultimate cho 1 đồng đội, và có tỉ lệ 0.5%/0.8%/1.3%/1.7%/2.8% hồi 100% điểm ultimate</t>
-  </si>
-  <si>
-    <t>Chiquita</t>
-  </si>
-  <si>
-    <t>Pharita</t>
-  </si>
-  <si>
-    <t>Rami</t>
-  </si>
-  <si>
-    <t>Rora</t>
-  </si>
-  <si>
-    <t>Ruka</t>
-  </si>
-  <si>
-    <t>Hỏa (Fire)</t>
-  </si>
-  <si>
-    <t>Khi đạt 100 UP, bước vào Chờ Bùng Nổ (2 hiệp). Giảm 50/45/40/35/30% Thủ. Nếu dùng Ultimate ngay thì sẽ hủy Bùng Nổ, không bị giảm Thủ. Sau 2 hiệp, kích hoạt Bùng Nổ (2 hiệp) thủ trở lại gốc, tăng 20/25/29/35/46% Tỷ Lệ Chí Mạng, 20/22/24/26/30% tỉ lệ Xuyên Giáp. Bùng Nổ kết thúc vẫn giữ 100 năng lượng, có thể dùng Ultimate bất cứ lúc nào. Bùng Nổ không kích hoạt lại cho đến khi Ultimate được dùng.</t>
-  </si>
-  <si>
-    <t>Gây 40/50/60/70/80% sát thương Hỏa lên 1 tiêu chính. Hai kẻ địch bên cạnh chịu sát thương lan bằng 10/20/30/40/50% sát thương mục tiêu nhận.</t>
-  </si>
-  <si>
-    <t>Gây 70/80/90/100/110% sát thương Hỏa lên 1 tiêu chính. Lan sát thương qua hai bên trái phải, mỗi lần đi qua một người sẽ giảm 70/60/45/30/10% sát thương từ người trước đó.</t>
-  </si>
-  <si>
-    <t>Hồi máu cho toàn đội trừ bản thân, số máu hồi được sẽ bằng 5/8/12/17/24% máu mà bản thân đang có, và có tỉ lệ 0.5%/1%/2%/3%/4% phá giải toàn bộ hiệu ứng xấu.</t>
-  </si>
-  <si>
-    <t>Gây vụ nổ cho 2/3/4/5/6 mục tiêu gần nhau gây ra 100/120/135/150/165% sát thương lửa. Suy giảm 10/12/14/16/19% phòng thủ của mục tiêu trong 1 hiệp sau</t>
-  </si>
-  <si>
-    <t>Tactician</t>
-  </si>
-  <si>
-    <t>Gây 40/50/60/70/80% sát thương Thuỷ lên 1 mục tiêu</t>
-  </si>
-  <si>
-    <t>Mỗi hiệp, Pharita sẽ trao ngẫu nhiên cho 1/1/1/2/2 đồng đội 10/14/19/23/30% tỉ lệ không chết khi bị hết máu, máu sẽ về 1, nếu pharita chết thì mất, khi kích máu về 1 thì đồng đội đó nhận được 10/15/22/35/45% tấn công cộng thêm</t>
-  </si>
-  <si>
-    <t>Tăng 20/30/35/45/50% sát thương chí mạng đang có cho 1 đồng đội trong 2 hiệp, nếu cả 2 hiệp sử dụng tấn công đều trúng chí mạng thì người đó sẽ hồi 20/25/30/35/40 điểm ultimate</t>
-  </si>
-  <si>
-    <t>Guardian</t>
-  </si>
-  <si>
-    <t>Thổ (Earth)</t>
-  </si>
-  <si>
-    <t>Khi đồng đội đang có tường đá bảo vệ được tạo từ skill của Ruka bị địch tấn công, Ruka sẽ đánh trả với sát thương thổ bằng 20/22/25/27/31% sát thương mà đồng đội bị tấn công nhận được, nếu kẻ địch đánh lan thì sẽ lấy từ đồng đội bị nặng nhất</t>
-  </si>
-  <si>
-    <t>Gây 40/45/50/55/60% sát thương thổ lên 3 mục tiêu liền nhau</t>
-  </si>
-  <si>
-    <t>Tạo tường đá cho 2 đồng đội liền nhau và chuyển hoá 10/12/14/17/20% sát thương nhận được cho Ruka gánh chịu, có 1/2/3/4/5% tỉ lệ tường đá gây hiệu ứng choáng cho kẻ tấn công trong 1 hiệp</t>
-  </si>
-  <si>
-    <t>Khiêu khích kẻ địch khiến các đòn tấn công bị lệch hướng về phía bản thân để nhận thay cho đồng đội, tỉ lệ chệch hướng là 10/15/20/25/30% trong 1/1/2/2/2 hiệp</t>
-  </si>
-  <si>
-    <t>Tạo lá chắn nước cho toàn đội lẫn mình, ngăn chặn toàn bộ hiệu ứng xấu hệ hoả và mộc, cũng như giảm 10/13/17/25/30% sát thương hoả và mộc trong 1/1/2/2/2 hiệp</t>
-  </si>
-  <si>
-    <t>Juggernaut</t>
   </si>
   <si>
     <t>Hệ</t>
@@ -328,19 +189,123 @@
       <t>: Gây Shock (DoT nhẹ) nhưng có thêm hiệu ứng Gây Chấn Động Lân Cận. Địch xung quanh mục tiêu chính sẽ bị Shock nhẹ và giảm Def. Nếu địch đang trong trạng thái không chế (Stun, Freeze, v.v.), sát thương Break x2.</t>
     </r>
   </si>
+  <si>
+    <t>ATTRIBUE</t>
+  </si>
+  <si>
+    <t>TIER</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DES</t>
+  </si>
+  <si>
+    <t>Bent Blade (Lưỡi Cong)</t>
+  </si>
+  <si>
+    <t>A sword shaped from bent metal scraps. It cuts better than it looks. (Thanh kiếm ghép từ mảnh thép cong. Cắt tốt hơn vẻ ngoài.)</t>
+  </si>
+  <si>
+    <t>Guardrail Edge (Lưỡi Rào Cũ)</t>
+  </si>
+  <si>
+    <t>Made from an old roadside guardrail, with faint carvings of forgotten runes. (Rèn từ thanh chắn đường cũ, còn khắc mờ những ký hiệu lạ.)</t>
+  </si>
+  <si>
+    <t>Coolant Knife (Dao Lạnh Máy)</t>
+  </si>
+  <si>
+    <t>A knife built from coolant tube fragments, cold to the touch. (Con dao làm từ ống làm mát vỡ, lạnh buốt khi cầm.)</t>
+  </si>
+  <si>
+    <t>Weldpick (Mũi Hàn Dao)</t>
+  </si>
+  <si>
+    <t>Fashioned from welding shrapnel. Fast, sharp, unpredictable. (Chế từ mảnh vụn mỏ hàn – nhanh, bén và khó lường.)</t>
+  </si>
+  <si>
+    <t>Buzztip (Dao Giật Gân)</t>
+  </si>
+  <si>
+    <t>Rigged with a twitchy wire core from riot tech. Shocks if lucky. (Gắn dây điện cũ từ thiết bị chống bạo loạn. Đôi lúc giật thật.)</t>
+  </si>
+  <si>
+    <t>Rustbite (Rìu Cắn Gỉ)</t>
+  </si>
+  <si>
+    <t>A heavy tool-head tied to a pipe. Chops more through weight than edge. (Đầu rìu nặng gắn vào ống thép, chặt nhờ cân nặng hơn là sắc bén.)</t>
+  </si>
+  <si>
+    <t>Breaker Hatchet (Rìu Phá Vỡ)</t>
+  </si>
+  <si>
+    <t>Scrap axe assembled from demolition parts. Loud but useful. (Rìu phế liệu ráp từ thiết bị phá dỡ, ồn nhưng hiệu quả.)</t>
+  </si>
+  <si>
+    <t>Loosehead (Búa Long Đầu)</t>
+  </si>
+  <si>
+    <t>A hammerhead barely held by tape and prayers. (Đầu búa gần như rơi ra, chỉ giữ bằng băng keo và niềm tin.)</t>
+  </si>
+  <si>
+    <t>Gridspike (Búa Gai Điện)</t>
+  </si>
+  <si>
+    <t>Twisted rebar with a battery nub—buzzes when it hits metal. (Thanh thép gân xoắn kèm lõi pin – kêu tạch tạch khi đập trúng kim loại.)</t>
+  </si>
+  <si>
+    <t>Splitbranch (Cung Nhánh Gãy)</t>
+  </si>
+  <si>
+    <t>A bow made from snapped branches and cable. Held together by grit. (Làm từ nhánh cây gãy và dây cáp, giữ bằng ý chí.)</t>
+  </si>
+  <si>
+    <t>Static Arc (Cung Tĩnh Điện)</t>
+  </si>
+  <si>
+    <t>Shoots thin arrows that sometimes carry static from old wires. (Bắn tên nhẹ, đôi lúc dính điện từ dây cũ.)</t>
+  </si>
+  <si>
+    <t>Pipegun (Súng Ống Nước)</t>
+  </si>
+  <si>
+    <t>Crude barrel and spring system, held together with tape. It shoots… something. (Nòng súng tự chế, gắn bằng băng keo – bắn được gì đó.)</t>
+  </si>
+  <si>
+    <t>Flashspitter (Súng Tia Lửa)</t>
+  </si>
+  <si>
+    <t>Modified flare launcher that sometimes lights enemies on fire. (Súng pháo sáng độ lại, thỉnh thoảng làm cháy địch.)</t>
+  </si>
+  <si>
+    <t>Tameclaw (Găng Vuốt Rách)</t>
+  </si>
+  <si>
+    <t>Worn glove with old scrap welded into crude claws. (Găng da cũ hàn thêm vuốt thép thô sơ.)</t>
+  </si>
+  <si>
+    <t>Powercoil Grip (Găng Cuộn Điện)</t>
+  </si>
+  <si>
+    <t>Uses engine coil wire to stiffen grip. May spark under stress. (Quấn dây cuộn máy để siết chặt – có thể tóe điện khi bóp mạnh.)</t>
+  </si>
+  <si>
+    <t>10 Atk</t>
+  </si>
+  <si>
+    <t>100  ArmorPenetration</t>
+  </si>
+  <si>
+    <t>50 speed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,20 +344,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,231 +638,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="8" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations xWindow="467" yWindow="477" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Juggernaut = Công thủ toàn diện_x000a_Assassin = Sát thương đơn_x000a_Demolisher = Sát thương diện rộng_x000a_Tactician = Buff tấn công, phòng thủ_x000a_Saboteur = Hiệu ứng bất lợi, vô hiệu_x000a_Guardian = Tạo khiên bảo vệ_x000a_Medic = Hồi máu, cứu trợ" sqref="C2:C8" xr:uid="{6E023480-FD31-4438-9A06-832729806492}">
-      <formula1>"Juggernaut,Assassin,Demolisher,Tactician,Saboteur,Guardian,Medic"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{4C8FBBDF-ED1E-4172-89A9-C2F1BFC0A303}">
-      <formula1>"Kim (Metal),Mộc (Wood),Thủy (Water),Hỏa (Fire),Thổ (Earth)"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5E221-C559-470B-933E-E3AC9D08E443}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -908,69 +652,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>55</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>55</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>57</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -979,14 +723,503 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233CBE62-7DB3-4381-82B5-9F6DD4E49EC0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" customWidth="1"/>
+    <col min="5" max="5" width="157.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10002</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10008</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10009</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10010</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10011</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10012</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10013</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10014</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10015</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>10035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10064</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\My\CardGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2106E9-2ACF-4DFB-8614-4D7F49B013BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2F21C-035C-491F-BBB2-35EBFBAF7A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>NAME</t>
   </si>
@@ -295,10 +295,361 @@
     <t>10 Atk</t>
   </si>
   <si>
-    <t>100  ArmorPenetration</t>
-  </si>
-  <si>
-    <t>50 speed</t>
+    <t>100  CriticalRate</t>
+  </si>
+  <si>
+    <t>80 ArmorPenetrationChance</t>
+  </si>
+  <si>
+    <t>350 ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>5 atk, 200 ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>1% atk</t>
+  </si>
+  <si>
+    <t>4% crtdmg</t>
+  </si>
+  <si>
+    <t>55 spd</t>
+  </si>
+  <si>
+    <t>4% toughnesshitrate</t>
+  </si>
+  <si>
+    <t>3.5% ArmorPenetrationChance</t>
+  </si>
+  <si>
+    <t>4% ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>100 lifesteal</t>
+  </si>
+  <si>
+    <t>4% lifesteal</t>
+  </si>
+  <si>
+    <t>400 CriticalDamage</t>
+  </si>
+  <si>
+    <t>340 ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>Sawblade Edge (Lưỡi Răng Cưa)</t>
+  </si>
+  <si>
+    <t>A brutal sword forged from a broken industrial saw. (Thanh kiếm rèn từ lưỡi cưa công nghiệp gãy, thô bạo và nguy hiểm.)</t>
+  </si>
+  <si>
+    <t>Reactor Splitter (Dao Tách Lõi)</t>
+  </si>
+  <si>
+    <t>Built from discarded reactor plating, still faintly radioactive. (Dao làm từ tấm phản ứng hạt nhân bỏ đi, vẫn còn phóng xạ nhẹ.)</t>
+  </si>
+  <si>
+    <t>Twin Shivs (Cặp Lưỡi Ngầm)</t>
+  </si>
+  <si>
+    <t>A pair of small blades made for close-quarters skirmishes. (Cặp dao nhỏ dùng trong những trận cận chiến nhanh gọn.)</t>
+  </si>
+  <si>
+    <t>Vulture Cleaver (Rìu Kền Kền)</t>
+  </si>
+  <si>
+    <t>Heavy axe built from aircraft scraps. Hits like falling wreckage. (Rìu nặng chế từ mảnh máy bay, giáng như mảnh xác rơi.)</t>
+  </si>
+  <si>
+    <t>Flamestick (Gậy Tàn Tro)</t>
+  </si>
+  <si>
+    <t>A scorched staff embedded with flickering firestones. (Gậy cháy xém chứa đá lửa lập lòe bên trong.)</t>
+  </si>
+  <si>
+    <t>Rustcoil Gun (Súng Cuộn Gỉ)</t>
+  </si>
+  <si>
+    <t>Fires unstable metal slugs powered by salvaged coils. (Bắn viên đạn kim loại không ổn định bằng cuộn cảm tái chế.)</t>
+  </si>
+  <si>
+    <t>Sparkbiter (Súng Gặm Tia)</t>
+  </si>
+  <si>
+    <t>A makeshift pistol that sparks violently with each trigger pull. (Súng tự chế phát ra tia điện mạnh mỗi khi bóp cò.)</t>
+  </si>
+  <si>
+    <t>Nailthrower (Nỏ Găm Đinh)</t>
+  </si>
+  <si>
+    <t>A crossbow-mod throwing sharpened nails at insane velocity. (Nỏ cải tiến bắn đinh mài nhọn với tốc độ kinh hoàng.)</t>
+  </si>
+  <si>
+    <t>Tanglepiercer (Nỏ Xuyên Rối)</t>
+  </si>
+  <si>
+    <t>Launches hooked cables to drag or entangle. (Bắn cáp móc dùng kéo hoặc trói mục tiêu.)</t>
+  </si>
+  <si>
+    <t>Howling Bow (Cung Gió Rít)</t>
+  </si>
+  <si>
+    <t>Emits a shrill whine as it fires light carbon arrows. (Tạo tiếng rít chói tai khi bắn tên carbon siêu nhẹ.)</t>
+  </si>
+  <si>
+    <t>Smashfist (Găng Nện Gãy)</t>
+  </si>
+  <si>
+    <t>A glove with weighted knuckles scavenged from old bots. (Găng tay có đốt chì lấy từ xác máy cũ, đấm nặng và đau.)</t>
+  </si>
+  <si>
+    <t>140 lifesteal</t>
+  </si>
+  <si>
+    <t>139 CriticalRate</t>
+  </si>
+  <si>
+    <t>18 Attack</t>
+  </si>
+  <si>
+    <t>479 ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>512 CriticalDamage</t>
+  </si>
+  <si>
+    <t>10 atk, 80 LifeSteal</t>
+  </si>
+  <si>
+    <t>96 spd</t>
+  </si>
+  <si>
+    <t>4% spd</t>
+  </si>
+  <si>
+    <t>35 spd, 180 toughnesshitrate</t>
+  </si>
+  <si>
+    <t>150 ArmorPenetrationChance</t>
+  </si>
+  <si>
+    <t>6% ArmorPenetrationChance</t>
+  </si>
+  <si>
+    <t>Reforged Spineblade (Kiếm Xương Tái Luyện)</t>
+  </si>
+  <si>
+    <t>Forged from vertebrae and steel, this blade hums with residual rage. (Rèn từ cột sống và thép, lưỡi kiếm này ngân lên cơn giận dồn nén.)</t>
+  </si>
+  <si>
+    <t>Edge of Reprisal (Dao Báo Oán)</t>
+  </si>
+  <si>
+    <t>A cursed knife wrapped in chainlinks, thirsts for counterattacks. (Dao bị nguyền, quấn xích nhỏ, khao khát được phản đòn.)</t>
+  </si>
+  <si>
+    <t>Solar Maw (Rìu Hàm Mặt Trời)</t>
+  </si>
+  <si>
+    <t>Its jagged edge glows faintly with molten sun-metal. (Rìu răng cưa phát sáng nhẹ bằng hợp kim mặt trời.)</t>
+  </si>
+  <si>
+    <t>Echo Rod (Gậy Vọng Âm)</t>
+  </si>
+  <si>
+    <t>When it strikes, it echoes the screams of a forgotten battlefield. (Mỗi cú đánh vang tiếng thét từ chiến trường bị lãng quên.)</t>
+  </si>
+  <si>
+    <t>600 ToughnessHitRate, 2% EffectHitRate</t>
+  </si>
+  <si>
+    <t>Voltpulse (Súng Xung Điện)</t>
+  </si>
+  <si>
+    <t>A sleek pistol with unstable pulse cores—unpredictable but deadly. (Súng gọn với lõi xung không ổn định – khó lường nhưng chết chóc.)</t>
+  </si>
+  <si>
+    <t>Thunderthorn (Cung Gai Sét)</t>
+  </si>
+  <si>
+    <t>Fires spiked arrows wrapped in conductive thread. (Bắn mũi tên gai bọc chỉ dẫn điện.)</t>
+  </si>
+  <si>
+    <t>600 ArmorPenetrationChance, 300 CritRate</t>
+  </si>
+  <si>
+    <t>Breaker Claw (Vuốt Phá Hủy)</t>
+  </si>
+  <si>
+    <t>Fused with drill-tips and shock nodes—rips through anything. (Gắn đầu khoan và lõi giật – xé tan mọi thứ.)</t>
+  </si>
+  <si>
+    <t>400 CritRate, 500 EffectHitRate</t>
+  </si>
+  <si>
+    <t>Steelchain Crossbow (Nỏ Chuỗi Sắt)</t>
+  </si>
+  <si>
+    <t>Fires chained bolts that rattle like shackles mid-air. (Bắn tên xích, kêu như xiềng xích giữa không trung.)</t>
+  </si>
+  <si>
+    <t>Solarfang (Kiếm Rực Nắng)</t>
+  </si>
+  <si>
+    <t>A blade forged from sun-core alloy, humming with heat and hunger. (Lưỡi kiếm rèn từ hợp kim lõi mặt trời, nóng rực và háu đói.)</t>
+  </si>
+  <si>
+    <t>Venomtip Fang (Dao Độc Nhỏ)</t>
+  </si>
+  <si>
+    <t>Blade lined with dried god-blood; poisons more than it cuts. (Dao có rìa tẩm máu thần khô, gây độc còn hơn gây thương.)</t>
+  </si>
+  <si>
+    <t>Wreckjaw (Rìu Hàm Nát)</t>
+  </si>
+  <si>
+    <t>Head of an old war mech jaw, reforged into a brutal axe. (Đầu hàm máy chiến tranh cũ, rèn lại thành rìu nghiền nát.)</t>
+  </si>
+  <si>
+    <t>9 Atk, 1000 ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>Soulshock Rod (Gậy Kích Hồn)</t>
+  </si>
+  <si>
+    <t>Emits bursts that rattle the nerves and soul alike. (Phát xung làm tê liệt cả thần kinh lẫn linh hồn.)</t>
+  </si>
+  <si>
+    <t>1000 ToughnessHitRate, 3% EffectHitRate</t>
+  </si>
+  <si>
+    <t>Plasma Burst (Súng Nổ Plasma)</t>
+  </si>
+  <si>
+    <t>Charges unstable plasma cores into a short-range blast. (Nạp lõi plasma bất ổn để bắn nổ cự ly gần.)</t>
+  </si>
+  <si>
+    <t>Aetherstring (Cung Dây Hư Vô)</t>
+  </si>
+  <si>
+    <t>String made of woven mana, arrows strike beyond sight. (Dây cung dệt từ năng lượng mana, tên bắn xa khỏi tầm mắt.)</t>
+  </si>
+  <si>
+    <t>1000 ArmorPenetrationChance, 600 CritRate</t>
+  </si>
+  <si>
+    <t>Drillmaw (Vuốt Khoan Sát)</t>
+  </si>
+  <si>
+    <t>Whirling claws tipped with micro-drills and ether shocks. (Vuốt xoáy có đầu khoan mini và điện kích.)</t>
+  </si>
+  <si>
+    <t>Stormbarrel (Nỏ Lốc Điện)</t>
+  </si>
+  <si>
+    <t>Rotating chamber crossbow sparking from within. (Nỏ có ổ xoay, phát lửa điện mỗi lần nạp tên.)</t>
+  </si>
+  <si>
+    <t>Solstice Fang (Kiếm Đông Chí)</t>
+  </si>
+  <si>
+    <t>A blade forged under a dying sun, devours both light and heat. (Kiếm rèn dưới mặt trời hấp hối, nuốt cả ánh sáng lẫn hơi ấm.)</t>
+  </si>
+  <si>
+    <t>Godsplit Fang (Dao Chia Thần)</t>
+  </si>
+  <si>
+    <t>Once used to dissect divinity — now turned on mortals. (Từng dùng để phân tách thần thánh, giờ hướng về phàm nhân.)</t>
+  </si>
+  <si>
+    <t>Titanjaw (Rìu Hàm Thần)</t>
+  </si>
+  <si>
+    <t>Cut from the jawbone of a fallen colossus. (Rìu làm từ hàm dưới của thần khổng lồ đã ngã.)</t>
+  </si>
+  <si>
+    <t>Final Echo (Gậy Vọng Tận)</t>
+  </si>
+  <si>
+    <t>Echoes the final cry of a vanished world. (Vang lên tiếng cuối cùng của một thế giới đã biến mất.)</t>
+  </si>
+  <si>
+    <t>1200 ToughnessHitRate, 3.5% EffectHitRate</t>
+  </si>
+  <si>
+    <t>Plasma Rift (Súng Xé Không)</t>
+  </si>
+  <si>
+    <t>Fires unstable rifts that warp the air and flesh alike. (Bắn ra khe nứt làm méo mó cả không khí lẫn thịt da.)</t>
+  </si>
+  <si>
+    <t>Skyshatter Bow (Cung Phá Trời)</t>
+  </si>
+  <si>
+    <t>Arrows scream as they tear through clouds and armor. (Mũi tên rít lên khi xé mây và xuyên giáp.)</t>
+  </si>
+  <si>
+    <t>1500 ArmorPenetrationChance, 1200 CritRate</t>
+  </si>
+  <si>
+    <t>Hellcoil Talon (Vuốt Cuộn Địa Ngục)</t>
+  </si>
+  <si>
+    <t>Gauntlet laced with infernal wiring — burns, tears, disrupts. (Găng vuốt quấn dây địa ngục – thiêu, xé, phá.)</t>
+  </si>
+  <si>
+    <t>Chainblight (Nỏ Xiềng Tử)</t>
+  </si>
+  <si>
+    <t>Launches cursed bolts that bind and wither. (Bắn tên bị nguyền, trói và hủy hoại đối phương.)</t>
+  </si>
+  <si>
+    <t>20 Atk, 1% Atk</t>
+  </si>
+  <si>
+    <t>800 CritRate, 3.5% CritRate</t>
+  </si>
+  <si>
+    <t>12 Atk, 700 ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>100 Spd, 2% Spd</t>
+  </si>
+  <si>
+    <t>5% ArmorPenetrationChance, 5% ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>10 Atk, 3.5% Atk</t>
+  </si>
+  <si>
+    <t>1200 CritRate, 2.8% CritRate</t>
+  </si>
+  <si>
+    <t>100 Spd, 5% Spd</t>
+  </si>
+  <si>
+    <t>8% ArmorPenetrationChance, 3% ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>800 CritRate, 5% EffectHitRate</t>
+  </si>
+  <si>
+    <t>28 Atk, 5% Atk</t>
+  </si>
+  <si>
+    <t>2000 CritRate, 4.5% CritRate</t>
+  </si>
+  <si>
+    <t>20 Atk, 1500 ArmorPenetrationDamage</t>
+  </si>
+  <si>
+    <t>200 Spd, 6% Spd</t>
+  </si>
+  <si>
+    <t>1500 CritRate, 5.5% EffectHitRate</t>
+  </si>
+  <si>
+    <t>12% ArmorPenetrationChance, 8% ToughnessHitRate</t>
   </si>
 </sst>
 </file>
@@ -322,12 +673,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -342,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -353,12 +734,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,7 +1117,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,13 +1148,13 @@
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
@@ -776,13 +1165,13 @@
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -793,423 +1182,879 @@
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10021</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10023</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10024</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10025</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10027</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10028</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10029</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10030</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10031</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10032</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10033</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10034</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10035</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10036</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10037</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10038</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10039</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10040</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10041</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10042</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10043</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10044</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10045</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10046</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10047</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10049</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <v>5</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10050</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10051</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10052</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10053</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10054</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10055</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10056</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10057</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10058</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10059</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10060</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10061</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10062</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10063</v>
       </c>
@@ -1221,5 +2066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2F21C-035C-491F-BBB2-35EBFBAF7A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA574C82-93CC-42B1-9229-0AA1A6C5CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
   <si>
     <t>NAME</t>
   </si>
@@ -214,24 +214,6 @@
     <t>Made from an old roadside guardrail, with faint carvings of forgotten runes. (Rèn từ thanh chắn đường cũ, còn khắc mờ những ký hiệu lạ.)</t>
   </si>
   <si>
-    <t>Coolant Knife (Dao Lạnh Máy)</t>
-  </si>
-  <si>
-    <t>A knife built from coolant tube fragments, cold to the touch. (Con dao làm từ ống làm mát vỡ, lạnh buốt khi cầm.)</t>
-  </si>
-  <si>
-    <t>Weldpick (Mũi Hàn Dao)</t>
-  </si>
-  <si>
-    <t>Fashioned from welding shrapnel. Fast, sharp, unpredictable. (Chế từ mảnh vụn mỏ hàn – nhanh, bén và khó lường.)</t>
-  </si>
-  <si>
-    <t>Buzztip (Dao Giật Gân)</t>
-  </si>
-  <si>
-    <t>Rigged with a twitchy wire core from riot tech. Shocks if lucky. (Gắn dây điện cũ từ thiết bị chống bạo loạn. Đôi lúc giật thật.)</t>
-  </si>
-  <si>
     <t>Rustbite (Rìu Cắn Gỉ)</t>
   </si>
   <si>
@@ -244,18 +226,6 @@
     <t>Scrap axe assembled from demolition parts. Loud but useful. (Rìu phế liệu ráp từ thiết bị phá dỡ, ồn nhưng hiệu quả.)</t>
   </si>
   <si>
-    <t>Loosehead (Búa Long Đầu)</t>
-  </si>
-  <si>
-    <t>A hammerhead barely held by tape and prayers. (Đầu búa gần như rơi ra, chỉ giữ bằng băng keo và niềm tin.)</t>
-  </si>
-  <si>
-    <t>Gridspike (Búa Gai Điện)</t>
-  </si>
-  <si>
-    <t>Twisted rebar with a battery nub—buzzes when it hits metal. (Thanh thép gân xoắn kèm lõi pin – kêu tạch tạch khi đập trúng kim loại.)</t>
-  </si>
-  <si>
     <t>Splitbranch (Cung Nhánh Gãy)</t>
   </si>
   <si>
@@ -280,75 +250,24 @@
     <t>Modified flare launcher that sometimes lights enemies on fire. (Súng pháo sáng độ lại, thỉnh thoảng làm cháy địch.)</t>
   </si>
   <si>
-    <t>Tameclaw (Găng Vuốt Rách)</t>
-  </si>
-  <si>
-    <t>Worn glove with old scrap welded into crude claws. (Găng da cũ hàn thêm vuốt thép thô sơ.)</t>
-  </si>
-  <si>
-    <t>Powercoil Grip (Găng Cuộn Điện)</t>
-  </si>
-  <si>
-    <t>Uses engine coil wire to stiffen grip. May spark under stress. (Quấn dây cuộn máy để siết chặt – có thể tóe điện khi bóp mạnh.)</t>
-  </si>
-  <si>
     <t>10 Atk</t>
   </si>
   <si>
-    <t>100  CriticalRate</t>
-  </si>
-  <si>
-    <t>80 ArmorPenetrationChance</t>
-  </si>
-  <si>
     <t>350 ToughnessHitRate</t>
   </si>
   <si>
-    <t>5 atk, 200 ToughnessHitRate</t>
-  </si>
-  <si>
-    <t>1% atk</t>
-  </si>
-  <si>
-    <t>4% crtdmg</t>
-  </si>
-  <si>
-    <t>55 spd</t>
-  </si>
-  <si>
-    <t>4% toughnesshitrate</t>
-  </si>
-  <si>
     <t>3.5% ArmorPenetrationChance</t>
   </si>
   <si>
     <t>4% ArmorPenetrationDamage</t>
   </si>
   <si>
-    <t>100 lifesteal</t>
-  </si>
-  <si>
-    <t>4% lifesteal</t>
-  </si>
-  <si>
-    <t>400 CriticalDamage</t>
-  </si>
-  <si>
-    <t>340 ArmorPenetrationDamage</t>
-  </si>
-  <si>
     <t>Sawblade Edge (Lưỡi Răng Cưa)</t>
   </si>
   <si>
     <t>A brutal sword forged from a broken industrial saw. (Thanh kiếm rèn từ lưỡi cưa công nghiệp gãy, thô bạo và nguy hiểm.)</t>
   </si>
   <si>
-    <t>Reactor Splitter (Dao Tách Lõi)</t>
-  </si>
-  <si>
-    <t>Built from discarded reactor plating, still faintly radioactive. (Dao làm từ tấm phản ứng hạt nhân bỏ đi, vẫn còn phóng xạ nhẹ.)</t>
-  </si>
-  <si>
     <t>Twin Shivs (Cặp Lưỡi Ngầm)</t>
   </si>
   <si>
@@ -379,12 +298,6 @@
     <t>A makeshift pistol that sparks violently with each trigger pull. (Súng tự chế phát ra tia điện mạnh mỗi khi bóp cò.)</t>
   </si>
   <si>
-    <t>Nailthrower (Nỏ Găm Đinh)</t>
-  </si>
-  <si>
-    <t>A crossbow-mod throwing sharpened nails at insane velocity. (Nỏ cải tiến bắn đinh mài nhọn với tốc độ kinh hoàng.)</t>
-  </si>
-  <si>
     <t>Tanglepiercer (Nỏ Xuyên Rối)</t>
   </si>
   <si>
@@ -397,42 +310,9 @@
     <t>Emits a shrill whine as it fires light carbon arrows. (Tạo tiếng rít chói tai khi bắn tên carbon siêu nhẹ.)</t>
   </si>
   <si>
-    <t>Smashfist (Găng Nện Gãy)</t>
-  </si>
-  <si>
-    <t>A glove with weighted knuckles scavenged from old bots. (Găng tay có đốt chì lấy từ xác máy cũ, đấm nặng và đau.)</t>
-  </si>
-  <si>
-    <t>140 lifesteal</t>
-  </si>
-  <si>
-    <t>139 CriticalRate</t>
-  </si>
-  <si>
-    <t>18 Attack</t>
-  </si>
-  <si>
     <t>479 ArmorPenetrationDamage</t>
   </si>
   <si>
-    <t>512 CriticalDamage</t>
-  </si>
-  <si>
-    <t>10 atk, 80 LifeSteal</t>
-  </si>
-  <si>
-    <t>96 spd</t>
-  </si>
-  <si>
-    <t>4% spd</t>
-  </si>
-  <si>
-    <t>35 spd, 180 toughnesshitrate</t>
-  </si>
-  <si>
-    <t>150 ArmorPenetrationChance</t>
-  </si>
-  <si>
     <t>6% ArmorPenetrationChance</t>
   </si>
   <si>
@@ -478,15 +358,6 @@
     <t>600 ArmorPenetrationChance, 300 CritRate</t>
   </si>
   <si>
-    <t>Breaker Claw (Vuốt Phá Hủy)</t>
-  </si>
-  <si>
-    <t>Fused with drill-tips and shock nodes—rips through anything. (Gắn đầu khoan và lõi giật – xé tan mọi thứ.)</t>
-  </si>
-  <si>
-    <t>400 CritRate, 500 EffectHitRate</t>
-  </si>
-  <si>
     <t>Steelchain Crossbow (Nỏ Chuỗi Sắt)</t>
   </si>
   <si>
@@ -499,12 +370,6 @@
     <t>A blade forged from sun-core alloy, humming with heat and hunger. (Lưỡi kiếm rèn từ hợp kim lõi mặt trời, nóng rực và háu đói.)</t>
   </si>
   <si>
-    <t>Venomtip Fang (Dao Độc Nhỏ)</t>
-  </si>
-  <si>
-    <t>Blade lined with dried god-blood; poisons more than it cuts. (Dao có rìa tẩm máu thần khô, gây độc còn hơn gây thương.)</t>
-  </si>
-  <si>
     <t>Wreckjaw (Rìu Hàm Nát)</t>
   </si>
   <si>
@@ -538,18 +403,6 @@
     <t>1000 ArmorPenetrationChance, 600 CritRate</t>
   </si>
   <si>
-    <t>Drillmaw (Vuốt Khoan Sát)</t>
-  </si>
-  <si>
-    <t>Whirling claws tipped with micro-drills and ether shocks. (Vuốt xoáy có đầu khoan mini và điện kích.)</t>
-  </si>
-  <si>
-    <t>Stormbarrel (Nỏ Lốc Điện)</t>
-  </si>
-  <si>
-    <t>Rotating chamber crossbow sparking from within. (Nỏ có ổ xoay, phát lửa điện mỗi lần nạp tên.)</t>
-  </si>
-  <si>
     <t>Solstice Fang (Kiếm Đông Chí)</t>
   </si>
   <si>
@@ -568,15 +421,6 @@
     <t>Cut from the jawbone of a fallen colossus. (Rìu làm từ hàm dưới của thần khổng lồ đã ngã.)</t>
   </si>
   <si>
-    <t>Final Echo (Gậy Vọng Tận)</t>
-  </si>
-  <si>
-    <t>Echoes the final cry of a vanished world. (Vang lên tiếng cuối cùng của một thế giới đã biến mất.)</t>
-  </si>
-  <si>
-    <t>1200 ToughnessHitRate, 3.5% EffectHitRate</t>
-  </si>
-  <si>
     <t>Plasma Rift (Súng Xé Không)</t>
   </si>
   <si>
@@ -592,12 +436,6 @@
     <t>1500 ArmorPenetrationChance, 1200 CritRate</t>
   </si>
   <si>
-    <t>Hellcoil Talon (Vuốt Cuộn Địa Ngục)</t>
-  </si>
-  <si>
-    <t>Gauntlet laced with infernal wiring — burns, tears, disrupts. (Găng vuốt quấn dây địa ngục – thiêu, xé, phá.)</t>
-  </si>
-  <si>
     <t>Chainblight (Nỏ Xiềng Tử)</t>
   </si>
   <si>
@@ -622,18 +460,12 @@
     <t>10 Atk, 3.5% Atk</t>
   </si>
   <si>
-    <t>1200 CritRate, 2.8% CritRate</t>
-  </si>
-  <si>
     <t>100 Spd, 5% Spd</t>
   </si>
   <si>
     <t>8% ArmorPenetrationChance, 3% ToughnessHitRate</t>
   </si>
   <si>
-    <t>800 CritRate, 5% EffectHitRate</t>
-  </si>
-  <si>
     <t>28 Atk, 5% Atk</t>
   </si>
   <si>
@@ -646,10 +478,73 @@
     <t>200 Spd, 6% Spd</t>
   </si>
   <si>
-    <t>1500 CritRate, 5.5% EffectHitRate</t>
-  </si>
-  <si>
     <t>12% ArmorPenetrationChance, 8% ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>96 Spd</t>
+  </si>
+  <si>
+    <t>4% Spd</t>
+  </si>
+  <si>
+    <t>100 CritRate</t>
+  </si>
+  <si>
+    <t>140 Lifesteal</t>
+  </si>
+  <si>
+    <t>18 Atk</t>
+  </si>
+  <si>
+    <t>5 Atk, 200 ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>10 Atk, 80 Lifesteal</t>
+  </si>
+  <si>
+    <t>55 Spd</t>
+  </si>
+  <si>
+    <t>4% ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>35 Spd, 180 ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>Stormbarrel (Súng Lốc Điện)</t>
+  </si>
+  <si>
+    <t>Rotating chamber gun sparking from within. (Súng ổ xoay phát lửa điện mỗi lần bắn.)</t>
+  </si>
+  <si>
+    <t>Final Flash (Súng Tận Diệt)</t>
+  </si>
+  <si>
+    <t>Built from a collapsed war satellite. One pull. One wipe. (Tái chế từ vệ tinh quân sự sụp đổ. Một phát — xoá sổ.)</t>
+  </si>
+  <si>
+    <t>250 Spd, 7% Spd</t>
+  </si>
+  <si>
+    <t>1500 ArmorPenetrationDamage, 5% EffectHitRate</t>
+  </si>
+  <si>
+    <t>Soulcleaver (Rìu Cắt Linh Hồn)</t>
+  </si>
+  <si>
+    <t>A massive blade that ignores flesh and cuts the spirit instead. (Lưỡi rìu khổng lồ bỏ qua da thịt, chỉ chém linh hồn.)</t>
+  </si>
+  <si>
+    <t>1200 ToughnessHitRate, 6% ToughnessHitRate</t>
+  </si>
+  <si>
+    <t>Moonpiercer (Cung Xuyên Nguyệt)</t>
+  </si>
+  <si>
+    <t>Can split beams of moonlight. Arrows bend toward heartbeats. (Có thể tách ánh trăng. Tên tự tìm đến nhịp tim.)</t>
+  </si>
+  <si>
+    <t>600 CritRate, 5% EffectHitRate</t>
   </si>
 </sst>
 </file>
@@ -673,42 +568,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -723,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -737,17 +602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1117,13 +971,13 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="157.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1144,917 +998,807 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
+      <c r="C4" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
+      <c r="C6" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>38</v>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>72</v>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
-      <c r="B20" s="8">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>74</v>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>76</v>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10021</v>
       </c>
-      <c r="B22" s="8">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>78</v>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
-      <c r="B23" s="8">
-        <v>2</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>80</v>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10023</v>
       </c>
-      <c r="B24" s="8">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>82</v>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10024</v>
       </c>
-      <c r="B25" s="8">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10025</v>
       </c>
-      <c r="B26" s="8">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>86</v>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>88</v>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10027</v>
       </c>
-      <c r="B28" s="9">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10028</v>
       </c>
-      <c r="B29" s="9">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10029</v>
       </c>
-      <c r="B30" s="9">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10030</v>
       </c>
-      <c r="B31" s="9">
-        <v>3</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10031</v>
       </c>
-      <c r="B32" s="9">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>159</v>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10032</v>
       </c>
-      <c r="B33" s="9">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10033</v>
       </c>
-      <c r="B34" s="9">
-        <v>3</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10034</v>
       </c>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10035</v>
       </c>
-      <c r="B36" s="10">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10036</v>
       </c>
-      <c r="B37" s="10">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10037</v>
       </c>
-      <c r="B38" s="10">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10038</v>
       </c>
-      <c r="B39" s="10">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10039</v>
       </c>
-      <c r="B40" s="10">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10040</v>
       </c>
-      <c r="B41" s="10">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10041</v>
       </c>
-      <c r="B42" s="10">
-        <v>4</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10042</v>
       </c>
-      <c r="B43" s="10">
-        <v>4</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10043</v>
       </c>
-      <c r="B44" s="11">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10044</v>
       </c>
-      <c r="B45" s="11">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10045</v>
       </c>
-      <c r="B46" s="11">
-        <v>5</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10046</v>
       </c>
-      <c r="B47" s="11">
-        <v>5</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10047</v>
       </c>
-      <c r="B48" s="11">
-        <v>5</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10048</v>
       </c>
-      <c r="B49" s="11">
-        <v>5</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10049</v>
       </c>
-      <c r="B50" s="11">
-        <v>5</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10050</v>
       </c>
-      <c r="B51" s="11">
-        <v>5</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10051</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10052</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10053</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10054</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10055</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10056</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10057</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10058</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10059</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10060</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10061</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10062</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10063</v>
       </c>

--- a/Design/Card.xlsx
+++ b/Design/Card.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vanhaodev\Learn\CardGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA574C82-93CC-42B1-9229-0AA1A6C5CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662961A-D6E6-4FB2-ABEC-DC26229858A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="2" r:id="rId1"/>
     <sheet name="Weapons" sheetId="3" r:id="rId2"/>
+    <sheet name="Armor" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="155">
   <si>
     <t>NAME</t>
   </si>
@@ -546,12 +547,66 @@
   <si>
     <t>600 CritRate, 5% EffectHitRate</t>
   </si>
+  <si>
+    <t>Rustshell Vest (Áo Giáp Vỏ Gỉ)</t>
+  </si>
+  <si>
+    <t>An old steel panel reshaped into a crude chestplate. Heavy, but reliable. (Tấm thép cũ được uốn lại thành áo giáp – nặng nhưng chắc chắn.)</t>
+  </si>
+  <si>
+    <t>Soothelm Scrapcap (Mũ Bụi Than)</t>
+  </si>
+  <si>
+    <t>A welding mask converted into a reinforced helmet. Blocks sparks and curses alike. (Mặt nạ thợ hàn biến thành mũ sắt, chống được cả lửa lẫn nguyền rủa.)</t>
+  </si>
+  <si>
+    <t>Patchhide Wrap (Giáp Da Vá)</t>
+  </si>
+  <si>
+    <t>A layered hide outfit made from salvaged beast pelts and wire thread. (Áo giáp da vá từ lông thú và dây đồng – linh hoạt và bền chắc.)</t>
+  </si>
+  <si>
+    <t>5 Defense</t>
+  </si>
+  <si>
+    <t>Rebar Cuirass (Áo Gân Thép)</t>
+  </si>
+  <si>
+    <t>Armor pieced together from bent rebar and wire mesh. Rigid, but protective. (Giáp ráp từ sắt gân và lưới thép, cứng nhắc nhưng chắn tốt.)</t>
+  </si>
+  <si>
+    <t>Ashmantle Hood (Mũ Choàng Tro)</t>
+  </si>
+  <si>
+    <t>A soot-stained hood worn by fire-worshipers. Resistant to both flame and fear. (Mũ tro của kẻ thờ lửa, chống cả lửa lẫn nỗi sợ.)</t>
+  </si>
+  <si>
+    <t>Slickhide Legwrap (Quần Da Trượt)</t>
+  </si>
+  <si>
+    <t>Pants made from waterproof beast leather—quiet and fast. (Quần da thú chống nước, di chuyển êm và nhanh.)</t>
+  </si>
+  <si>
+    <t>100 hpmax</t>
+  </si>
+  <si>
+    <t>80 DodgeRate, 30 HpMax</t>
+  </si>
+  <si>
+    <t>2 Defense, 60 Hpmax</t>
+  </si>
+  <si>
+    <t>40 EffectResistRate, 20 HpMax</t>
+  </si>
+  <si>
+    <t>110 DodgeDamage, 2 Speed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,16 +622,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -584,11 +651,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,8 +685,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233CBE62-7DB3-4381-82B5-9F6DD4E49EC0}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,16 +1090,16 @@
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1019,16 +1107,16 @@
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1036,16 +1124,16 @@
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1053,16 +1141,16 @@
       <c r="A5">
         <v>10004</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1070,16 +1158,16 @@
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1087,16 +1175,16 @@
       <c r="A7">
         <v>10006</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1104,16 +1192,16 @@
       <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1121,16 +1209,16 @@
       <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1274,16 +1362,16 @@
       <c r="A18">
         <v>10017</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1291,16 +1379,16 @@
       <c r="A19">
         <v>10018</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1308,16 +1396,16 @@
       <c r="A20">
         <v>10019</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1325,16 +1413,16 @@
       <c r="A21">
         <v>10020</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1342,16 +1430,16 @@
       <c r="A22">
         <v>10021</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1359,16 +1447,16 @@
       <c r="A23">
         <v>10022</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1376,16 +1464,16 @@
       <c r="A24">
         <v>10023</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1393,16 +1481,16 @@
       <c r="A25">
         <v>10024</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1546,16 +1634,16 @@
       <c r="A34">
         <v>10033</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1563,16 +1651,16 @@
       <c r="A35">
         <v>10034</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1580,16 +1668,16 @@
       <c r="A36">
         <v>10035</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1597,16 +1685,16 @@
       <c r="A37">
         <v>10036</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1614,16 +1702,16 @@
       <c r="A38">
         <v>10037</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1631,16 +1719,16 @@
       <c r="A39">
         <v>10038</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1648,16 +1736,16 @@
       <c r="A40">
         <v>10039</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1665,16 +1753,16 @@
       <c r="A41">
         <v>10040</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1812,4 +1900,193 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F90C36-F502-4719-94F3-454A0D6F1D6F}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10501</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10502</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10503</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10504</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10505</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10506</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>